--- a/biology/Botanique/Jan_Commelijn/Jan_Commelijn.xlsx
+++ b/biology/Botanique/Jan_Commelijn/Jan_Commelijn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jan Commelijn (ou Commelin ou Johannes Commelinus) est un botaniste hollandais, né à Leyde le 23 avril 1629, mort le 19 janvier 1692 à Amsterdam.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de l'historien Isaac Commelin, il fut d'abord professeur de botanique et joua un rôle d'expert auprès de la Compagnie néerlandaise des Indes orientales lorsqu'il fallut classer les nouvelles plantes que les navires rapportaient de la colonie du Cap et de Ceylan. Conseiller municipal d'Amsterdam, il convainquit le bourgmestre Johan Huydecoper van Maarsseveen de développer le jardin botanique de la ville, le Hortus Medicus qui devait devenir le Hortus Botanicus. Dans sa ferme près de Haarlem, appelée Zuyderhout, il cultivait des plantes exotiques et gagna une fortune en vendant le produit de ces cultures aux apothicaires et aux hôpitaux des Provinces-Unies.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On a de lui : 
 Nederlantze Hesperides (Les Hespérides des Pays-Bas), 1676 ;
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cet article comprend des extraits du Dictionnaire Bouillet. Il est possible de supprimer cette indication, si le texte reflète le savoir actuel sur ce thème, si les sources sont citées, s'il satisfait aux exigences linguistiques actuelles et s'il ne contient pas de propos qui vont à l'encontre des règles de neutralité de Wikipédia.</t>
         </is>
